--- a/data_tables/Conditions.xlsx
+++ b/data_tables/Conditions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="26920" windowHeight="13930"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>condition4</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>amount_type</t>
   </si>
   <si>
@@ -65,10 +68,16 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>uint64</t>
+  </si>
+  <si>
     <t>common</t>
   </si>
   <si>
     <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
+  </si>
+  <si>
+    <t>时间约束（如 1 小时内完成）</t>
   </si>
   <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
@@ -700,10 +709,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1023,18 +1032,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="19" max="19" width="13.6272727272727" customWidth="1"/>
+    <col min="20" max="20" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,225 +1077,239 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
+    </row>
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20">
-        <v>0</v>
-      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21">
-        <v>0</v>
-      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1296,25 +1319,26 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22">
-        <v>0</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1324,89 +1348,92 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23">
-        <v>0</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24">
-        <v>0</v>
-      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
       <c r="Q24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25">
-        <v>0</v>
-      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1416,25 +1443,26 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26">
-        <v>0</v>
-      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1444,279 +1472,288 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27">
-        <v>0</v>
-      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="Q27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28">
-        <v>0</v>
-      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="Q28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29">
-        <v>0</v>
-      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>11</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30">
-        <v>0</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>12</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>4</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31">
-        <v>0</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
       <c r="Q31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32">
-        <v>0</v>
-      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="Q32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33">
-        <v>0</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
       <c r="Q33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34">
-        <v>0</v>
-      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35">
-        <v>0</v>
-      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1726,25 +1763,26 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36">
-        <v>0</v>
-      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1754,25 +1792,26 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37">
-        <v>0</v>
-      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1791,25 +1830,26 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38">
-        <v>0</v>
-      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>20</v>
       </c>
@@ -1828,25 +1868,26 @@
       <c r="F39">
         <v>8</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39">
-        <v>0</v>
-      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>21</v>
       </c>
@@ -1859,25 +1900,26 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40">
-        <v>0</v>
-      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1899,21 +1941,22 @@
       <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41">
-        <v>0</v>
-      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>23</v>
       </c>
@@ -1935,21 +1978,22 @@
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42">
-        <v>0</v>
-      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>24</v>
       </c>
@@ -1959,59 +2003,60 @@
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43">
-        <v>0</v>
-      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>25</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>26</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>27</v>
       </c>
@@ -2021,17 +2066,17 @@
       <c r="C46">
         <v>15</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>28</v>
       </c>
@@ -2041,17 +2086,17 @@
       <c r="C47">
         <v>16</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>29</v>
       </c>
@@ -2061,17 +2106,17 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_tables/Conditions.xlsx
+++ b/data_tables/Conditions.xlsx
@@ -35,7 +35,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>condition_type</t>
+    <t>condition_category</t>
   </si>
   <si>
     <t>condition1</t>
@@ -53,13 +53,13 @@
     <t>duration</t>
   </si>
   <si>
-    <t>amount_type</t>
+    <t>quantity_type</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>target_amount</t>
   </si>
   <si>
-    <t>comparison</t>
+    <t>comparison_op</t>
   </si>
   <si>
     <t>designer</t>
@@ -80,7 +80,7 @@
     <t>时间约束（如 1 小时内完成）</t>
   </si>
   <si>
-    <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
+    <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)并用枚举描述 0 = cumulative, 1 = owned</t>
   </si>
   <si>
     <t>数量</t>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/data_tables/Conditions.xlsx
+++ b/data_tables/Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26920" windowHeight="13930"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -50,19 +50,19 @@
     <t>condition4</t>
   </si>
   <si>
-    <t>duration</t>
+    <t>valid_duration</t>
   </si>
   <si>
     <t>quantity_type</t>
   </si>
   <si>
-    <t>target_amount</t>
+    <t>target_count</t>
   </si>
   <si>
     <t>comparison_op</t>
   </si>
   <si>
-    <t>designer</t>
+    <t>design_note</t>
   </si>
   <si>
     <t>uint32</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>designer</t>
   </si>
   <si>
     <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1223,24 +1226,24 @@
         <v>13</v>
       </c>
       <c r="T4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
